--- a/BalanceSheet/TSLA_bal.xlsx
+++ b/BalanceSheet/TSLA_bal.xlsx
@@ -250,7 +250,7 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>17141000000.0</v>
+        <v>17446000000.0</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>19622000000.0</v>
@@ -265,7 +265,7 @@
         <v>8273000000.0</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>6514000000.0</v>
+        <v>6268000000.0</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>5571000000.0</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>4132000000.0</v>
+        <v>3600000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3849000000.0</v>
@@ -519,7 +519,7 @@
         <v>3316000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>3311000000.0</v>
+        <v>3552000000.0</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>3581000000.0</v>
@@ -630,10 +630,8 @@
           <t>Other current assets</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B5" s="0" t="n">
+        <v>1237000000.0</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1108000000.0</v>
@@ -955,7 +953,7 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>13868000000.0</v>
+        <v>24844000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>23375000000.0</v>
@@ -970,7 +968,7 @@
         <v>20468000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>20199000000.0</v>
+        <v>10396000000.0</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>10190000000.0</v>
@@ -1081,10 +1079,8 @@
           <t>Long-Term Investments</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B8" s="0" t="n">
+        <v>277000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>279000000.0</v>
@@ -1460,7 +1456,7 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>505000000.0</v>
+        <v>1836000000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>520000000.0</v>
@@ -1629,7 +1625,7 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>8851000000.0</v>
+        <v>986000000.0</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>923000000.0</v>
@@ -1644,7 +1640,7 @@
         <v>741000000.0</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>807000000.0</v>
+        <v>7608000000.0</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>7243000000.0</v>
@@ -2201,7 +2197,7 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>6648000000.0</v>
+        <v>7320000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>7388000000.0</v>
@@ -2216,7 +2212,7 @@
         <v>3705000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>4311000000.0</v>
+        <v>3771000000.0</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>3468000000.0</v>
@@ -2454,10 +2450,8 @@
           <t>Current Part of Debt</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>2128000000.0</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2459000000.0</v>
@@ -2896,7 +2890,7 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>745000000.0</v>
+        <v>5273000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>4961000000.0</v>
@@ -2911,7 +2905,7 @@
         <v>4118000000.0</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>4215000000.0</v>
+        <v>726000000.0</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>1106000000.0</v>
@@ -3150,7 +3144,7 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>9053000000.0</v>
+        <v>10383000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>10888000000.0</v>
@@ -3165,7 +3159,7 @@
         <v>11701000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>12627000000.0</v>
+        <v>11634000000.0</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>11313000000.0</v>
@@ -3403,10 +3397,8 @@
           <t>Long Term Tax Liability (Deferred)</t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B24" s="0" t="n">
+        <v>144000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>151000000.0</v>
@@ -3780,7 +3772,7 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>3283000000.0</v>
+        <v>1809000000.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1898000000.0</v>
@@ -3795,7 +3787,7 @@
         <v>1692000000.0</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>1698000000.0</v>
+        <v>2691000000.0</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>2714000000.0</v>
@@ -4034,7 +4026,7 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>29108000000.0</v>
+        <v>28507000000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>28469000000.0</v>
@@ -4049,7 +4041,7 @@
         <v>26578000000.0</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>26199000000.0</v>
+        <v>26842000000.0</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>25913000000.0</v>
@@ -4542,7 +4534,7 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>23864000000.0</v>
+        <v>23017000000.0</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>22225000000.0</v>
@@ -4557,7 +4549,7 @@
         <v>9173000000.0</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>6618000000.0</v>
+        <v>7467000000.0</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>6882000000.0</v>
@@ -4669,7 +4661,7 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>23864000000.0</v>
+        <v>23017000000.0</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>22225000000.0</v>
@@ -4684,7 +4676,7 @@
         <v>9173000000.0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>6618000000.0</v>
+        <v>7467000000.0</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>6882000000.0</v>
@@ -5177,7 +5169,7 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>-8088000000.0</v>
+        <v>-4935000000.0</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>-6275000000.0</v>
@@ -5304,7 +5296,7 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>9053000000.0</v>
+        <v>12511000000.0</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>13347000000.0</v>

--- a/BalanceSheet/TSLA_bal.xlsx
+++ b/BalanceSheet/TSLA_bal.xlsx
@@ -5184,7 +5184,7 @@
         <v>6927000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>8183000000.0</v>
+        <v>7436000000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>7772000000.0</v>
@@ -5311,7 +5311,7 @@
         <v>15200000000.0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>14697000000.0</v>
+        <v>13704000000.0</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>13343000000.0</v>
